--- a/2022/Symphony/January/10.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/10.01.2022/MC Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3011,6 +3011,18 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3157,18 +3169,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3836,33 +3836,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="309"/>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="310"/>
-      <c r="B2" s="307" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="310"/>
-      <c r="B3" s="308" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="310"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="310"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="310"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3910,7 +3910,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="310"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>61</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="310"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>62</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="310"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="310"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>65</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="310"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>66</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="310"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>67</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="310"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>68</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="310"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>69</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="310"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>70</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="310"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4094,7 +4094,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="310"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4107,7 +4107,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="310"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4120,7 +4120,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="310"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4133,7 +4133,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="310"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4146,7 +4146,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="310"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4159,7 +4159,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="310"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4172,7 +4172,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="310"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4185,7 +4185,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="310"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4198,7 +4198,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="310"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4211,7 +4211,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="310"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4224,7 +4224,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="310"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4237,7 +4237,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="310"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4250,7 +4250,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="310"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4263,7 +4263,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="310"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4276,7 +4276,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="310"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4289,7 +4289,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="310"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4302,7 +4302,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="310"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4315,7 +4315,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="310"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4328,7 +4328,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="310"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4341,7 +4341,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="310"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4354,7 +4354,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="310"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4367,7 +4367,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="310"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4380,7 +4380,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="310"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4393,7 +4393,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="310"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4406,7 +4406,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="310"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4419,7 +4419,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="310"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4432,7 +4432,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="310"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4445,7 +4445,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="310"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4458,7 +4458,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="310"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4471,7 +4471,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="310"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4484,7 +4484,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="310"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4497,7 +4497,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="310"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4510,7 +4510,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="310"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4523,7 +4523,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="310"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4536,7 +4536,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="310"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4549,7 +4549,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="310"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4562,7 +4562,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="310"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4575,7 +4575,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="310"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4588,7 +4588,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="310"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4600,7 +4600,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="310"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4612,7 +4612,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="310"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4624,7 +4624,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="310"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4636,7 +4636,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="310"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4648,7 +4648,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="310"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4660,7 +4660,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="310"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4672,7 +4672,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="310"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4684,7 +4684,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="310"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4696,7 +4696,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="310"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4708,7 +4708,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="310"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4720,7 +4720,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="310"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4732,7 +4732,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="310"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4744,7 +4744,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="310"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4756,7 +4756,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="310"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4768,7 +4768,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="310"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4780,7 +4780,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="310"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4792,7 +4792,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="310"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4804,7 +4804,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="310"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4816,7 +4816,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="310"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4828,7 +4828,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="310"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4840,7 +4840,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="310"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4852,7 +4852,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="310"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4864,7 +4864,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="310"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4876,7 +4876,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="310"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4888,7 +4888,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="310"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4900,7 +4900,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="310"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4912,7 +4912,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="310"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4924,7 +4924,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="310"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4981,33 +4981,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="309"/>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="310"/>
-      <c r="B2" s="307" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="310"/>
-      <c r="B3" s="308" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="310"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5025,7 +5025,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="310"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="310"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="271"/>
       <c r="D6" s="271"/>
@@ -5055,7 +5055,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="310"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>212</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="310"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>220</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="310"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>222</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="310"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>224</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="310"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>225</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="310"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>225</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="310"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>228</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="310"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>232</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="310"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>233</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="310"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26" t="s">
         <v>234</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="310"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26"/>
       <c r="C17" s="271"/>
       <c r="D17" s="271"/>
@@ -5247,7 +5247,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="310"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26"/>
       <c r="C18" s="271"/>
       <c r="D18" s="271"/>
@@ -5259,7 +5259,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="310"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26"/>
       <c r="C19" s="271"/>
       <c r="D19" s="274"/>
@@ -5271,7 +5271,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="310"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26"/>
       <c r="C20" s="271"/>
       <c r="D20" s="271"/>
@@ -5283,7 +5283,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="310"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26"/>
       <c r="C21" s="271"/>
       <c r="D21" s="271"/>
@@ -5295,7 +5295,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="310"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26"/>
       <c r="C22" s="271"/>
       <c r="D22" s="271"/>
@@ -5307,7 +5307,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="310"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26"/>
       <c r="C23" s="271"/>
       <c r="D23" s="271"/>
@@ -5319,7 +5319,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="310"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="271"/>
       <c r="D24" s="271"/>
@@ -5331,7 +5331,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="310"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="271"/>
       <c r="D25" s="271"/>
@@ -5343,7 +5343,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="310"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="271"/>
       <c r="D26" s="271"/>
@@ -5355,7 +5355,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="310"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="271"/>
       <c r="D27" s="271"/>
@@ -5367,7 +5367,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="310"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="271"/>
       <c r="D28" s="271"/>
@@ -5379,7 +5379,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="310"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="271"/>
       <c r="D29" s="271"/>
@@ -5391,7 +5391,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="310"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="271"/>
       <c r="D30" s="271"/>
@@ -5403,7 +5403,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="310"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="271"/>
       <c r="D31" s="271"/>
@@ -5415,7 +5415,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="310"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="271"/>
       <c r="D32" s="271"/>
@@ -5427,7 +5427,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="310"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="271"/>
       <c r="D33" s="274"/>
@@ -5439,7 +5439,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="310"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="271"/>
       <c r="D34" s="271"/>
@@ -5451,7 +5451,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="310"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="271"/>
       <c r="D35" s="271"/>
@@ -5463,7 +5463,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="310"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="271"/>
       <c r="D36" s="271"/>
@@ -5475,7 +5475,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="310"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="271"/>
       <c r="D37" s="271"/>
@@ -5487,7 +5487,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="310"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="271"/>
       <c r="D38" s="271"/>
@@ -5499,7 +5499,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="310"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="271"/>
       <c r="D39" s="271"/>
@@ -5511,7 +5511,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="310"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="271"/>
       <c r="D40" s="271"/>
@@ -5523,7 +5523,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="310"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="271"/>
       <c r="D41" s="271"/>
@@ -5535,7 +5535,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="310"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="271"/>
       <c r="D42" s="271"/>
@@ -5547,7 +5547,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="310"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="271"/>
       <c r="D43" s="271"/>
@@ -5559,7 +5559,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="310"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="271"/>
       <c r="D44" s="271"/>
@@ -5571,7 +5571,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="310"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="271"/>
       <c r="D45" s="271"/>
@@ -5583,7 +5583,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="310"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="271"/>
       <c r="D46" s="271"/>
@@ -5595,7 +5595,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="310"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="271"/>
       <c r="D47" s="271"/>
@@ -5607,7 +5607,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="310"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="271"/>
       <c r="D48" s="271"/>
@@ -5619,7 +5619,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="310"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="271"/>
       <c r="D49" s="271"/>
@@ -5631,7 +5631,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="310"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="271"/>
       <c r="D50" s="271"/>
@@ -5643,7 +5643,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="310"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="271"/>
       <c r="D51" s="271"/>
@@ -5655,7 +5655,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="310"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="271"/>
       <c r="D52" s="271"/>
@@ -5667,7 +5667,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="310"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="271"/>
       <c r="D53" s="271"/>
@@ -5679,7 +5679,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="310"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="271"/>
       <c r="D54" s="271"/>
@@ -5691,7 +5691,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="310"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="271"/>
       <c r="D55" s="271"/>
@@ -5702,7 +5702,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="310"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="271"/>
       <c r="D56" s="271"/>
@@ -5713,7 +5713,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="310"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="271"/>
       <c r="D57" s="271"/>
@@ -5724,7 +5724,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="310"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="271"/>
       <c r="D58" s="271"/>
@@ -5735,7 +5735,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="310"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="271"/>
       <c r="D59" s="271"/>
@@ -5746,7 +5746,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="310"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="271"/>
       <c r="D60" s="271"/>
@@ -5757,7 +5757,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="310"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="271"/>
       <c r="D61" s="271"/>
@@ -5768,7 +5768,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="310"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="271"/>
       <c r="D62" s="271"/>
@@ -5779,7 +5779,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="310"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="271"/>
       <c r="D63" s="271"/>
@@ -5790,7 +5790,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="310"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="271"/>
       <c r="D64" s="271"/>
@@ -5801,7 +5801,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="310"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="271"/>
       <c r="D65" s="271"/>
@@ -5812,7 +5812,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="310"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="271"/>
       <c r="D66" s="271"/>
@@ -5823,7 +5823,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="310"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="271"/>
       <c r="D67" s="271"/>
@@ -5834,7 +5834,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="310"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="271"/>
       <c r="D68" s="271"/>
@@ -5845,7 +5845,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="310"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="271"/>
       <c r="D69" s="271"/>
@@ -5856,7 +5856,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="310"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="271"/>
       <c r="D70" s="271"/>
@@ -5867,7 +5867,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="310"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="271"/>
       <c r="D71" s="271"/>
@@ -5878,7 +5878,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="310"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="271"/>
       <c r="D72" s="271"/>
@@ -5889,7 +5889,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="310"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="271"/>
       <c r="D73" s="271"/>
@@ -5900,7 +5900,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="310"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="271"/>
       <c r="D74" s="271"/>
@@ -5911,7 +5911,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="310"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="271"/>
       <c r="D75" s="271"/>
@@ -5922,7 +5922,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="310"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="271"/>
       <c r="D76" s="271"/>
@@ -5933,7 +5933,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="310"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="271"/>
       <c r="D77" s="271"/>
@@ -5944,7 +5944,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="310"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="271"/>
       <c r="D78" s="271"/>
@@ -5955,7 +5955,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="310"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="271"/>
       <c r="D79" s="271"/>
@@ -5967,7 +5967,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="310"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="271"/>
       <c r="D80" s="271"/>
@@ -5979,7 +5979,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="310"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="271"/>
       <c r="D81" s="271"/>
@@ -5991,7 +5991,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="310"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="271"/>
       <c r="D82" s="271"/>
@@ -6003,7 +6003,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="310"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="273">
         <f>SUM(C5:C72)</f>
@@ -6056,67 +6056,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="320" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="321" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="318"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="319"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6125,52 +6125,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="311" t="s">
+      <c r="D4" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="311" t="s">
+      <c r="E4" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="311" t="s">
+      <c r="F4" s="315" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="311" t="s">
+      <c r="G4" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="311" t="s">
+      <c r="H4" s="315" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="311" t="s">
+      <c r="I4" s="315" t="s">
         <v>202</v>
       </c>
-      <c r="J4" s="311" t="s">
+      <c r="J4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="311" t="s">
+      <c r="K4" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="311" t="s">
+      <c r="L4" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="311" t="s">
+      <c r="M4" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="311" t="s">
+      <c r="N4" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="313" t="s">
+      <c r="O4" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="324" t="s">
+      <c r="P4" s="328" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6183,22 +6183,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="321"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="312"/>
-      <c r="L5" s="312"/>
-      <c r="M5" s="312"/>
-      <c r="N5" s="312"/>
-      <c r="O5" s="314"/>
-      <c r="P5" s="325"/>
+      <c r="A5" s="325"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="329"/>
       <c r="Q5" s="136" t="s">
         <v>48</v>
       </c>
@@ -9179,6 +9179,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9192,12 +9198,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9211,8 +9211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9239,14 +9239,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="332"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="336"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9340,14 +9340,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="337" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="335"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="339"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9441,14 +9441,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="340" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="338"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -12817,12 +12817,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="328" t="s">
+      <c r="B35" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="328"/>
-      <c r="D35" s="328"/>
-      <c r="E35" s="328"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -12934,7 +12934,7 @@
       </c>
       <c r="F36" s="193">
         <f>F33-D119+L121</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G36" s="148"/>
       <c r="H36" s="148"/>
@@ -13701,10 +13701,10 @@
         <v>234</v>
       </c>
       <c r="F43" s="143"/>
-      <c r="G43" s="329"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="329"/>
-      <c r="J43" s="329"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -18736,7 +18736,7 @@
       </c>
       <c r="C87" s="125"/>
       <c r="D87" s="221">
-        <v>1860</v>
+        <v>1560</v>
       </c>
       <c r="E87" s="189" t="s">
         <v>234</v>
@@ -22216,14 +22216,14 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="326" t="s">
+      <c r="A119" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="327"/>
-      <c r="C119" s="339"/>
+      <c r="B119" s="331"/>
+      <c r="C119" s="343"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2308791</v>
+        <v>2308491</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22423,14 +22423,14 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="326" t="s">
+      <c r="A121" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="327"/>
-      <c r="C121" s="327"/>
+      <c r="B121" s="331"/>
+      <c r="C121" s="331"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2308791</v>
+        <v>2308491</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33662,8 +33662,8 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33680,35 +33680,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="344" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="342"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="346"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="353" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="351"/>
+      <c r="B2" s="354"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="355"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="347" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="345"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="349"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33731,15 +33731,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="356" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="353"/>
+      <c r="B4" s="357"/>
       <c r="C4" s="289"/>
-      <c r="D4" s="354" t="s">
+      <c r="D4" s="358" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="355"/>
+      <c r="E4" s="359"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -34054,10 +34054,10 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="356" t="s">
+      <c r="A14" s="307" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="357">
+      <c r="B14" s="308">
         <v>800000</v>
       </c>
       <c r="C14" s="42"/>
@@ -34154,13 +34154,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="22.5">
-      <c r="A17" s="346" t="s">
+      <c r="A17" s="350" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="347"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="347"/>
-      <c r="E17" s="348"/>
+      <c r="B17" s="351"/>
+      <c r="C17" s="351"/>
+      <c r="D17" s="351"/>
+      <c r="E17" s="352"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -34454,10 +34454,10 @@
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A26" s="358" t="s">
+      <c r="A26" s="309" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="359">
+      <c r="B26" s="310">
         <v>79590</v>
       </c>
       <c r="C26" s="131"/>
